--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:21:23-04:00</t>
+    <t>2023-04-28T13:01:52-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T13:01:52-04:00</t>
+    <t>2023-05-05T10:26:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:26:54-04:00</t>
+    <t>2023-05-11T16:43:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T16:43:35-04:00</t>
+    <t>2023-05-17T15:26:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:26:12-04:00</t>
+    <t>2023-05-23T11:50:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T11:50:31-04:00</t>
+    <t>2023-05-26T16:04:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T16:04:32-04:00</t>
+    <t>2023-05-30T15:29:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T15:29:53-04:00</t>
+    <t>2023-06-08T09:02:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T09:02:09-04:00</t>
+    <t>2023-06-08T10:27:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:27:07-04:00</t>
+    <t>2023-06-09T08:59:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T08:59:53-04:00</t>
+    <t>2023-06-26T13:45:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T13:45:18-04:00</t>
+    <t>2023-06-26T14:02:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:02:38-04:00</t>
+    <t>2023-06-27T11:58:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T11:58:55-04:00</t>
+    <t>2023-06-27T12:07:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T12:07:05-04:00</t>
+    <t>2023-06-27T13:18:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T13:18:32-04:00</t>
+    <t>2023-06-27T14:37:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:37:57-04:00</t>
+    <t>2023-06-27T14:58:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T05:55:31+00:00</t>
+    <t>2023-07-07T14:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:27:15+00:00</t>
+    <t>2023-07-07T14:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:44:27+00:00</t>
+    <t>2023-07-07T14:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T16:10:46-04:00</t>
+    <t>2023-07-25T13:28:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T13:28:49-04:00</t>
+    <t>2023-07-28T14:17:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T14:17:54-04:00</t>
+    <t>2023-08-01T11:06:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T11:06:47-04:00</t>
+    <t>2023-08-03T16:45:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:45:03-04:00</t>
+    <t>2023-08-04T11:46:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T11:46:30-04:00</t>
+    <t>2023-08-04T15:04:45-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T15:04:45-04:00</t>
+    <t>2023-08-08T14:12:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-08T14:12:31-04:00</t>
+    <t>2023-08-10T15:12:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T16:37:06+00:00</t>
+    <t>2023-08-16T17:53:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T17:53:24+00:00</t>
+    <t>2023-08-16T18:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T18:12:30+00:00</t>
+    <t>2023-08-16T22:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T22:53:49+00:00</t>
+    <t>2023-08-16T23:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T16:52:35-04:00</t>
+    <t>2023-08-21T17:33:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T05:01:43+00:00</t>
+    <t>2023-08-29T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-6:Either Patient.name.given and/or Patient.name.family SHALL be present or a Data Absent Reason Extension SHALL be present. {(name.family.exists() or name.given.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2273,13 +2277,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -2293,10 +2297,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2307,7 +2311,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2316,19 +2320,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2378,13 +2382,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2410,10 +2414,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2424,7 +2428,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2433,16 +2437,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2493,19 +2497,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2525,10 +2529,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2539,28 +2543,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2610,19 +2614,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2642,10 +2646,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2656,7 +2660,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2668,16 +2672,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2703,13 +2707,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2727,19 +2731,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2759,21 +2763,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2785,16 +2789,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2844,22 +2848,22 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>38</v>
@@ -2876,14 +2880,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2902,16 +2906,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2961,7 +2965,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2976,7 +2980,7 @@
         <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>38</v>
@@ -2993,10 +2997,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3019,13 +3023,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3064,17 +3068,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -3086,7 +3090,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -3106,13 +3110,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -3122,7 +3126,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -3134,13 +3138,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3191,7 +3195,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3200,10 +3204,10 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3223,13 +3227,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -3239,7 +3243,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -3251,13 +3255,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3308,7 +3312,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3317,10 +3321,10 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -3340,13 +3344,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -3356,7 +3360,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3368,16 +3372,16 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3427,7 +3431,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3436,13 +3440,13 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
@@ -3459,13 +3463,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
@@ -3475,7 +3479,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -3487,13 +3491,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3544,7 +3548,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3553,10 +3557,10 @@
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3576,14 +3580,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3596,25 +3600,25 @@
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3663,7 +3667,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3675,10 +3679,10 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -3695,10 +3699,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3706,32 +3710,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3780,7 +3784,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -3792,19 +3796,19 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>38</v>
@@ -3812,10 +3816,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3826,7 +3830,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3838,13 +3842,13 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3895,13 +3899,13 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
@@ -3910,7 +3914,7 @@
         <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -3927,14 +3931,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3953,16 +3957,16 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4000,19 +4004,19 @@
         <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -4024,10 +4028,10 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
@@ -4044,10 +4048,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4058,31 +4062,31 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -4107,13 +4111,13 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>38</v>
@@ -4131,22 +4135,22 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>38</v>
@@ -4155,7 +4159,7 @@
         <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -4163,10 +4167,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4177,7 +4181,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -4186,22 +4190,22 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -4226,13 +4230,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -4250,22 +4254,22 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -4274,7 +4278,7 @@
         <v>38</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -4282,10 +4286,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4293,34 +4297,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -4333,7 +4337,7 @@
         <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>38</v>
@@ -4369,22 +4373,22 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
@@ -4393,7 +4397,7 @@
         <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -4401,10 +4405,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4412,31 +4416,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4450,7 +4454,7 @@
         <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>38</v>
@@ -4486,22 +4490,22 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
@@ -4510,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4518,10 +4522,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4532,7 +4536,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4541,16 +4545,16 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4601,22 +4605,22 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -4625,7 +4629,7 @@
         <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4633,10 +4637,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4647,7 +4651,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4656,19 +4660,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4718,22 +4722,22 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
@@ -4742,7 +4746,7 @@
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4750,10 +4754,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4764,103 +4768,103 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>38</v>
@@ -4871,10 +4875,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4882,34 +4886,34 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4958,7 +4962,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4970,19 +4974,19 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>38</v>
@@ -4990,10 +4994,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5004,7 +5008,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -5016,13 +5020,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5073,13 +5077,13 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
@@ -5088,7 +5092,7 @@
         <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>38</v>
@@ -5105,14 +5109,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5131,16 +5135,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5178,19 +5182,19 @@
         <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -5202,10 +5206,10 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
@@ -5222,10 +5226,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5236,31 +5240,31 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -5285,13 +5289,13 @@
         <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>38</v>
@@ -5309,22 +5313,22 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
@@ -5333,7 +5337,7 @@
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -5341,10 +5345,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5355,7 +5359,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -5364,22 +5368,22 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5428,22 +5432,22 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>38</v>
@@ -5452,7 +5456,7 @@
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5460,42 +5464,42 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5545,22 +5549,22 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
@@ -5569,7 +5573,7 @@
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5577,14 +5581,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5594,25 +5598,25 @@
         <v>37</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5662,7 +5666,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -5671,13 +5675,13 @@
         <v>37</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
@@ -5686,7 +5690,7 @@
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5694,10 +5698,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5717,16 +5721,16 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5777,7 +5781,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5789,10 +5793,10 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
@@ -5801,7 +5805,7 @@
         <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5809,10 +5813,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5832,16 +5836,16 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5892,7 +5896,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5904,10 +5908,10 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -5916,7 +5920,7 @@
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5924,10 +5928,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5938,7 +5942,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5947,20 +5951,20 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -6009,22 +6013,22 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -6033,7 +6037,7 @@
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>38</v>
@@ -6041,10 +6045,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6064,22 +6068,22 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -6128,7 +6132,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6140,19 +6144,19 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>38</v>
@@ -6160,10 +6164,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6174,7 +6178,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -6186,13 +6190,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6243,13 +6247,13 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
@@ -6258,7 +6262,7 @@
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
@@ -6275,14 +6279,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6301,16 +6305,16 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6348,19 +6352,19 @@
         <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6372,10 +6376,10 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>38</v>
@@ -6392,10 +6396,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6403,28 +6407,28 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6451,13 +6455,13 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6475,22 +6479,22 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
@@ -6499,7 +6503,7 @@
         <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6507,10 +6511,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6518,34 +6522,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -6594,22 +6598,22 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
@@ -6618,7 +6622,7 @@
         <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6626,10 +6630,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6640,31 +6644,31 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6689,11 +6693,11 @@
         <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>38</v>
@@ -6711,22 +6715,22 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>
@@ -6735,7 +6739,7 @@
         <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6743,10 +6747,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6757,7 +6761,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6766,19 +6770,19 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6828,22 +6832,22 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>38</v>
@@ -6852,7 +6856,7 @@
         <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6860,10 +6864,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6874,7 +6878,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6883,16 +6887,16 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6943,22 +6947,22 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>38</v>
@@ -6967,7 +6971,7 @@
         <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -6975,10 +6979,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6986,34 +6990,34 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -7038,11 +7042,11 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -7060,31 +7064,31 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -7092,10 +7096,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7103,34 +7107,34 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -7179,42 +7183,42 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7225,31 +7229,31 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -7298,31 +7302,31 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7330,10 +7334,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7347,28 +7351,28 @@
         <v>37</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7417,7 +7421,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7429,19 +7433,19 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7449,10 +7453,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7463,7 +7467,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7475,13 +7479,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7532,13 +7536,13 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
@@ -7547,7 +7551,7 @@
         <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>38</v>
@@ -7564,14 +7568,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7590,16 +7594,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7637,19 +7641,19 @@
         <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7661,10 +7665,10 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>38</v>
@@ -7681,10 +7685,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7695,31 +7699,31 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7732,7 +7736,7 @@
         <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>38</v>
@@ -7744,13 +7748,13 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -7768,22 +7772,22 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>38</v>
@@ -7792,7 +7796,7 @@
         <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
@@ -7800,10 +7804,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7814,7 +7818,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7823,19 +7827,19 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7849,7 +7853,7 @@
         <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>38</v>
@@ -7861,13 +7865,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7885,22 +7889,22 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>38</v>
@@ -7909,7 +7913,7 @@
         <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7917,10 +7921,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7931,7 +7935,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7940,22 +7944,22 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7968,7 +7972,7 @@
         <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>38</v>
@@ -8004,22 +8008,22 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>38</v>
@@ -8028,7 +8032,7 @@
         <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -8036,10 +8040,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8053,22 +8057,22 @@
         <v>37</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8083,7 +8087,7 @@
         <v>38</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>38</v>
@@ -8119,7 +8123,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -8131,10 +8135,10 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>38</v>
@@ -8143,7 +8147,7 @@
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -8151,39 +8155,39 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8198,7 +8202,7 @@
         <v>38</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>38</v>
@@ -8234,22 +8238,22 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>38</v>
@@ -8258,7 +8262,7 @@
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8266,21 +8270,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -8289,19 +8293,19 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8315,7 +8319,7 @@
         <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>38</v>
@@ -8351,22 +8355,22 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>38</v>
@@ -8375,7 +8379,7 @@
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>38</v>
@@ -8383,39 +8387,39 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8442,13 +8446,13 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
@@ -8466,22 +8470,22 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>38</v>
@@ -8490,7 +8494,7 @@
         <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>38</v>
@@ -8498,39 +8502,39 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8545,7 +8549,7 @@
         <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>38</v>
@@ -8581,22 +8585,22 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>38</v>
@@ -8605,7 +8609,7 @@
         <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>38</v>
@@ -8613,10 +8617,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8627,7 +8631,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8636,19 +8640,19 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8698,22 +8702,22 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>38</v>
@@ -8722,7 +8726,7 @@
         <v>38</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>38</v>
@@ -8730,10 +8734,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8744,29 +8748,29 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8779,7 +8783,7 @@
         <v>38</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>38</v>
@@ -8815,22 +8819,22 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>38</v>
@@ -8839,7 +8843,7 @@
         <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>38</v>
@@ -8847,10 +8851,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8861,7 +8865,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8873,17 +8877,17 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8908,13 +8912,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8932,31 +8936,31 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
@@ -8964,10 +8968,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8978,7 +8982,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8990,19 +8994,19 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -9051,31 +9055,31 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>38</v>
@@ -9083,10 +9087,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9109,19 +9113,19 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -9170,7 +9174,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9182,19 +9186,19 @@
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -9202,10 +9206,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9228,19 +9232,19 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -9289,7 +9293,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -9301,13 +9305,13 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
@@ -9321,10 +9325,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9335,7 +9339,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -9347,13 +9351,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9404,13 +9408,13 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
@@ -9419,7 +9423,7 @@
         <v>38</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>38</v>
@@ -9436,14 +9440,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9462,16 +9466,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9521,7 +9525,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9533,10 +9537,10 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>38</v>
@@ -9553,14 +9557,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9573,25 +9577,25 @@
         <v>38</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -9640,7 +9644,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -9652,10 +9656,10 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>38</v>
@@ -9672,10 +9676,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9698,17 +9702,17 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9733,13 +9737,13 @@
         <v>38</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9757,7 +9761,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9769,19 +9773,19 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>38</v>
@@ -9789,10 +9793,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9803,7 +9807,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9815,17 +9819,17 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -9874,31 +9878,31 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>38</v>
@@ -9906,10 +9910,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9932,19 +9936,19 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>38</v>
@@ -9993,7 +9997,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -10005,19 +10009,19 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>38</v>
@@ -10025,10 +10029,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10039,7 +10043,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -10051,17 +10055,17 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -10110,31 +10114,31 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>38</v>
@@ -10142,10 +10146,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10156,7 +10160,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -10168,17 +10172,17 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -10203,13 +10207,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -10227,31 +10231,31 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>38</v>
@@ -10259,10 +10263,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10273,7 +10277,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -10285,17 +10289,17 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10344,31 +10348,31 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10376,10 +10380,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10390,7 +10394,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -10402,13 +10406,13 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10459,25 +10463,25 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>38</v>
@@ -10491,10 +10495,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10517,19 +10521,19 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
@@ -10578,7 +10582,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -10590,13 +10594,13 @@
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
@@ -10610,10 +10614,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10624,7 +10628,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -10636,13 +10640,13 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10693,13 +10697,13 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
@@ -10708,7 +10712,7 @@
         <v>38</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>38</v>
@@ -10725,14 +10729,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10751,16 +10755,16 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10810,7 +10814,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -10822,10 +10826,10 @@
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>38</v>
@@ -10842,14 +10846,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10862,25 +10866,25 @@
         <v>38</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10929,7 +10933,7 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -10941,10 +10945,10 @@
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>38</v>
@@ -10961,10 +10965,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10972,13 +10976,13 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>38</v>
@@ -10987,19 +10991,19 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -11024,11 +11028,11 @@
         <v>38</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>38</v>
@@ -11046,31 +11050,31 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>38</v>
@@ -11078,10 +11082,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11092,7 +11096,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -11104,19 +11108,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -11165,31 +11169,31 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
@@ -11197,14 +11201,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11223,16 +11227,16 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11282,7 +11286,7 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
@@ -11294,19 +11298,19 @@
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>
@@ -11314,10 +11318,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11328,7 +11332,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -11337,22 +11341,22 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>38</v>
@@ -11401,25 +11405,25 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>38</v>
@@ -11433,10 +11437,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11453,25 +11457,25 @@
         <v>38</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>38</v>
@@ -11520,7 +11524,7 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
@@ -11532,13 +11536,13 @@
         <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>38</v>
@@ -11552,10 +11556,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11566,7 +11570,7 @@
         <v>36</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>38</v>
@@ -11578,13 +11582,13 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11635,13 +11639,13 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>38</v>
@@ -11650,7 +11654,7 @@
         <v>38</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>38</v>
@@ -11667,14 +11671,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11693,16 +11697,16 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11752,7 +11756,7 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
@@ -11764,10 +11768,10 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>38</v>
@@ -11784,14 +11788,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11804,25 +11808,25 @@
         <v>38</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>38</v>
@@ -11871,7 +11875,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
@@ -11883,10 +11887,10 @@
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>38</v>
@@ -11903,10 +11907,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11914,10 +11918,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>38</v>
@@ -11926,19 +11930,19 @@
         <v>38</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11988,31 +11992,31 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>38</v>
@@ -12020,10 +12024,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12031,10 +12035,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>38</v>
@@ -12043,16 +12047,16 @@
         <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12079,13 +12083,13 @@
         <v>38</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>38</v>
@@ -12103,25 +12107,25 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>38</v>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T20:22:11+00:00</t>
+    <t>2023-09-15T16:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:15:52+00:00</t>
+    <t>2024-03-25T20:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:47:37+00:00</t>
+    <t>2024-03-25T21:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T21:26:55+00:00</t>
+    <t>2024-03-25T22:06:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:06:12+00:00</t>
+    <t>2024-03-25T22:18:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:18:18+00:00</t>
+    <t>2024-03-25T22:49:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:49:56+00:00</t>
+    <t>2024-03-26T03:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T03:52:16+00:00</t>
+    <t>2024-03-26T20:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T20:10:39+00:00</t>
+    <t>2024-04-15T18:23:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>KinD Lab (http://fhir.kindlab.sickkids.ca)</t>
   </si>
   <si>
     <t>Description</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T18:23:02+00:00</t>
+    <t>2024-04-16T16:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://voicecollab.ai/fhir/StructureDefinition/vbai-patient</t>
+    <t>https://kind-lab.github.io/vbai-fhir/StructureDefinition/vbai-patient</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T16:30:12+00:00</t>
+    <t>2024-05-13T19:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-patient.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T19:43:18+00:00</t>
+    <t>2024-05-29T18:31:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
